--- a/DataSet/Iris/calculosIris.xlsx
+++ b/DataSet/Iris/calculosIris.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melencino\Documents\Universidad\semestre_22-1\RP\RP-22-1\DataBase\Iris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melencino\Documents\Universidad\semestre_22-1\RP\RP-22-1\DataSet\Iris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E033F41-1B26-4FAF-806E-1060C8E8EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFD2B5-4B5D-4715-A5E3-7F73C22367BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{CCA8BA67-BBC2-479E-9B84-1D661240B96A}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="12210" windowHeight="9990" xr2:uid="{CCA8BA67-BBC2-479E-9B84-1D661240B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
   <si>
     <t>Iris-setosa</t>
   </si>
@@ -112,6 +119,15 @@
   </si>
   <si>
     <t>5, 8, 9, 2, Versicolor, versicolor</t>
+  </si>
+  <si>
+    <t>CLASIFICAR NAIVE BAYES</t>
+  </si>
+  <si>
+    <t>matriz promedio</t>
+  </si>
+  <si>
+    <t>matriz varianza</t>
   </si>
 </sst>
 </file>
@@ -380,6 +396,16 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,16 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A2A42C-D3AD-4B48-866F-74A22BBAD4B6}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,12 +819,12 @@
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="8" t="s">
         <v>4</v>
       </c>
@@ -828,7 +845,7 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="13">
@@ -867,7 +884,7 @@
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="13">
@@ -945,12 +962,12 @@
       <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="36">
         <v>50</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -969,25 +986,25 @@
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="26">
         <f>L4/L7</f>
         <v>5.0059999999999993</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="26">
         <f>M4/L7</f>
         <v>3.4180000000000006</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="26">
         <f>N4/L7</f>
         <v>1.464</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="26">
         <f>O4/L7</f>
         <v>0.24399999999999991</v>
       </c>
@@ -1014,20 +1031,20 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31">
+      <c r="K9" s="38"/>
+      <c r="L9" s="26">
         <f>L5/L7</f>
         <v>5.9359999999999999</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="26">
         <f>M5/L7</f>
         <v>2.7700000000000005</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="26">
         <f>N5/L7</f>
         <v>4.26</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="26">
         <f>O5/L7</f>
         <v>1.3259999999999998</v>
       </c>
@@ -1051,23 +1068,23 @@
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="31">
+      <c r="K10" s="39"/>
+      <c r="L10" s="26">
         <f>L6/L7</f>
         <v>6.5879999999999983</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="26">
         <f>M6/L7</f>
         <v>2.9739999999999998</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="26">
         <f>N6/L7</f>
         <v>5.5519999999999996</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="26">
         <f>O6/L7</f>
         <v>2.0519999999999996</v>
       </c>
@@ -1181,7 +1198,7 @@
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="P15" s="24" t="s">
@@ -1204,7 +1221,7 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -1247,7 +1264,7 @@
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="34" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="14" t="s">
@@ -1290,7 +1307,7 @@
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -1333,7 +1350,7 @@
       <c r="E19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1421,16 +1438,16 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1450,10 +1467,10 @@
       <c r="E24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="37"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -1474,13 +1491,13 @@
       <c r="E25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="33">
         <v>1</v>
       </c>
       <c r="K25">
@@ -1503,10 +1520,10 @@
       <c r="E26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1524,10 +1541,10 @@
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="38"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1614,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5.2</v>
       </c>
@@ -1631,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5.5</v>
       </c>
@@ -1647,8 +1664,11 @@
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1665,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1681,8 +1701,11 @@
       <c r="E36" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -1698,8 +1721,24 @@
       <c r="E37" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f>AVERAGE(A1:A50)</f>
+        <v>5.0059999999999993</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(B1:B50)</f>
+        <v>3.4180000000000006</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:K37" si="0">AVERAGE(C1:C50)</f>
+        <v>1.464</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0.24399999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1715,8 +1754,24 @@
       <c r="E38" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f>AVERAGE(A51:A100)</f>
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:K38" si="1">AVERAGE(B51:B100)</f>
+        <v>2.7700000000000005</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>4.26</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1.3259999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1732,8 +1787,24 @@
       <c r="E39" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f>AVERAGE(A101:A150)</f>
+        <v>6.5879999999999983</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:K39" si="2">AVERAGE(B101:B150)</f>
+        <v>2.9739999999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1750,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1767,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4.5</v>
       </c>
@@ -1783,8 +1854,11 @@
       <c r="E42" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1800,8 +1874,40 @@
       <c r="E43" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f>POWER(A1-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I43">
+        <f>POWER(B1-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J43">
+        <f>POWER(C1-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K43">
+        <f>POWER(D1-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+      <c r="M43">
+        <f>SUM(H43:H93)</f>
+        <v>6.2434359999999947</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:P43" si="3">SUM(I43:I93)</f>
+        <v>7.3461239999999997</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>1.5308960000000005</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>0.58753599999999984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -1817,8 +1923,24 @@
       <c r="E44" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f>POWER(A2-H37,2)</f>
+        <v>1.1235999999999784E-2</v>
+      </c>
+      <c r="I44">
+        <f>POWER(B2-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J44">
+        <f>POWER(C2-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K44">
+        <f>POWER(D2-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1834,8 +1956,24 @@
       <c r="E45" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>POWER(A3-H37,2)</f>
+        <v>9.3635999999999484E-2</v>
+      </c>
+      <c r="I45">
+        <f>POWER(B3-I37,2)</f>
+        <v>4.7524000000000184E-2</v>
+      </c>
+      <c r="J45">
+        <f>POWER(C3-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K45">
+        <f>POWER(D3-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4.8</v>
       </c>
@@ -1851,8 +1989,40 @@
       <c r="E46" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f>POWER(A4-H37,2)</f>
+        <v>0.16483599999999976</v>
+      </c>
+      <c r="I46">
+        <f>POWER(B4-I37,2)</f>
+        <v>0.10112400000000032</v>
+      </c>
+      <c r="J46">
+        <f>POWER(C4-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K46">
+        <f>POWER(D4-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+      <c r="M46">
+        <f>M43/49</f>
+        <v>0.12741706122448967</v>
+      </c>
+      <c r="N46">
+        <f>N43/49</f>
+        <v>0.14992089795918367</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="N46:P46" si="4">O43/49</f>
+        <v>3.1242775510204091E-2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>1.1990530612244895E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1868,8 +2038,24 @@
       <c r="E47" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f>POWER(A5-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I47">
+        <f>POWER(B5-I37,2)</f>
+        <v>3.3123999999999813E-2</v>
+      </c>
+      <c r="J47">
+        <f>POWER(C5-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K47">
+        <f>POWER(D5-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1885,8 +2071,24 @@
       <c r="E48" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f>POWER(A6-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I48">
+        <f>POWER(B6-I37,2)</f>
+        <v>0.23232399999999934</v>
+      </c>
+      <c r="J48">
+        <f>POWER(C6-J37,2)</f>
+        <v>5.5695999999999996E-2</v>
+      </c>
+      <c r="K48">
+        <f>POWER(D6-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>5.3</v>
       </c>
@@ -1902,8 +2104,24 @@
       <c r="E49" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>POWER(A6-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I49">
+        <f>POWER(B6-I37,2)</f>
+        <v>0.23232399999999934</v>
+      </c>
+      <c r="J49">
+        <f>POWER(C6-J37,2)</f>
+        <v>5.5695999999999996E-2</v>
+      </c>
+      <c r="K49">
+        <f>POWER(D6-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -1919,8 +2137,24 @@
       <c r="E50" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f>POWER(A7-H37,2)</f>
+        <v>0.16483599999999976</v>
+      </c>
+      <c r="I50">
+        <f>POWER(B7-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J50">
+        <f>POWER(C7-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K50">
+        <f>POWER(D7-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -1936,8 +2170,24 @@
       <c r="E51" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f>POWER(A8-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I51">
+        <f>POWER(B8-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J51">
+        <f>POWER(C8-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K51">
+        <f>POWER(D8-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>6.4</v>
       </c>
@@ -1953,8 +2203,24 @@
       <c r="E52" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f>POWER(A9-H37,2)</f>
+        <v>0.36723599999999879</v>
+      </c>
+      <c r="I52">
+        <f>POWER(B9-I37,2)</f>
+        <v>0.26832400000000073</v>
+      </c>
+      <c r="J52">
+        <f>POWER(C9-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K52">
+        <f>POWER(D9-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>6.9</v>
       </c>
@@ -1970,8 +2236,24 @@
       <c r="E53" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f>POWER(A10-H37,2)</f>
+        <v>1.1235999999999784E-2</v>
+      </c>
+      <c r="I53">
+        <f>POWER(B10-I37,2)</f>
+        <v>0.10112400000000032</v>
+      </c>
+      <c r="J53">
+        <f>POWER(C10-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K53">
+        <f>POWER(D10-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>5.5</v>
       </c>
@@ -1987,8 +2269,24 @@
       <c r="E54" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f>POWER(A11-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I54">
+        <f>POWER(B11-I37,2)</f>
+        <v>7.9523999999999762E-2</v>
+      </c>
+      <c r="J54">
+        <f>POWER(C11-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K54">
+        <f>POWER(D11-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>6.5</v>
       </c>
@@ -2004,8 +2302,24 @@
       <c r="E55" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f>POWER(A12-H37,2)</f>
+        <v>4.24359999999998E-2</v>
+      </c>
+      <c r="I55">
+        <f>POWER(B12-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J55">
+        <f>POWER(C12-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K55">
+        <f>POWER(D12-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>5.7</v>
       </c>
@@ -2021,8 +2335,24 @@
       <c r="E56" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f>POWER(A13-H37,2)</f>
+        <v>4.24359999999998E-2</v>
+      </c>
+      <c r="I56">
+        <f>POWER(B13-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J56">
+        <f>POWER(C13-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K56">
+        <f>POWER(D13-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>6.3</v>
       </c>
@@ -2038,8 +2368,24 @@
       <c r="E57" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f>POWER(A14-H37,2)</f>
+        <v>0.49843599999999932</v>
+      </c>
+      <c r="I57">
+        <f>POWER(B14-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J57">
+        <f>POWER(C14-J37,2)</f>
+        <v>0.13249599999999992</v>
+      </c>
+      <c r="K57">
+        <f>POWER(D14-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -2055,8 +2401,24 @@
       <c r="E58" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>POWER(A15-H37,2)</f>
+        <v>0.63043600000000077</v>
+      </c>
+      <c r="I58">
+        <f>POWER(B15-I37,2)</f>
+        <v>0.3387239999999993</v>
+      </c>
+      <c r="J58">
+        <f>POWER(C15-J37,2)</f>
+        <v>6.9696000000000008E-2</v>
+      </c>
+      <c r="K58">
+        <f>POWER(D15-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>6.6</v>
       </c>
@@ -2072,8 +2434,24 @@
       <c r="E59" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f>POWER(A16-H37,2)</f>
+        <v>0.48163600000000117</v>
+      </c>
+      <c r="I59">
+        <f>POWER(B16-I37,2)</f>
+        <v>0.96432399999999951</v>
+      </c>
+      <c r="J59">
+        <f>POWER(C16-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K59">
+        <f>POWER(D16-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>5.2</v>
       </c>
@@ -2089,8 +2467,24 @@
       <c r="E60" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f>POWER(A17-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I60">
+        <f>POWER(B17-I37,2)</f>
+        <v>0.23232399999999934</v>
+      </c>
+      <c r="J60">
+        <f>POWER(C17-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K60">
+        <f>POWER(D17-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>5</v>
       </c>
@@ -2106,8 +2500,24 @@
       <c r="E61" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f>POWER(A18-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I61">
+        <f>POWER(B18-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J61">
+        <f>POWER(C18-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K61">
+        <f>POWER(D18-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>5.9</v>
       </c>
@@ -2123,8 +2533,24 @@
       <c r="E62" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f>POWER(A19-H37,2)</f>
+        <v>0.48163600000000117</v>
+      </c>
+      <c r="I62">
+        <f>POWER(B19-I37,2)</f>
+        <v>0.14592399999999942</v>
+      </c>
+      <c r="J62">
+        <f>POWER(C19-J37,2)</f>
+        <v>5.5695999999999996E-2</v>
+      </c>
+      <c r="K62">
+        <f>POWER(D19-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -2140,8 +2566,24 @@
       <c r="E63" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f>POWER(A20-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I63">
+        <f>POWER(B20-I37,2)</f>
+        <v>0.14592399999999942</v>
+      </c>
+      <c r="J63">
+        <f>POWER(C20-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K63">
+        <f>POWER(D20-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>6.1</v>
       </c>
@@ -2157,8 +2599,24 @@
       <c r="E64" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f>POWER(A21-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I64">
+        <f>POWER(B21-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J64">
+        <f>POWER(C21-J37,2)</f>
+        <v>5.5695999999999996E-2</v>
+      </c>
+      <c r="K64">
+        <f>POWER(D21-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>5.6</v>
       </c>
@@ -2174,8 +2632,24 @@
       <c r="E65" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f>POWER(A22-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I65">
+        <f>POWER(B22-I37,2)</f>
+        <v>7.9523999999999762E-2</v>
+      </c>
+      <c r="J65">
+        <f>POWER(C22-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K65">
+        <f>POWER(D22-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>6.7</v>
       </c>
@@ -2191,8 +2665,24 @@
       <c r="E66" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f>POWER(A23-H37,2)</f>
+        <v>0.16483599999999976</v>
+      </c>
+      <c r="I66">
+        <f>POWER(B23-I37,2)</f>
+        <v>3.3123999999999813E-2</v>
+      </c>
+      <c r="J66">
+        <f>POWER(C23-J37,2)</f>
+        <v>0.21529599999999996</v>
+      </c>
+      <c r="K66">
+        <f>POWER(D23-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>5.6</v>
       </c>
@@ -2208,8 +2698,24 @@
       <c r="E67" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f>POWER(A24-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I67">
+        <f>POWER(B24-I37,2)</f>
+        <v>1.3924000000000183E-2</v>
+      </c>
+      <c r="J67">
+        <f>POWER(C24-J37,2)</f>
+        <v>5.5695999999999996E-2</v>
+      </c>
+      <c r="K67">
+        <f>POWER(D24-K37,2)</f>
+        <v>6.5536000000000066E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>5.8</v>
       </c>
@@ -2225,8 +2731,24 @@
       <c r="E68" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f>POWER(A25-H37,2)</f>
+        <v>4.24359999999998E-2</v>
+      </c>
+      <c r="I68">
+        <f>POWER(B25-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J68">
+        <f>POWER(C25-J37,2)</f>
+        <v>0.19009599999999996</v>
+      </c>
+      <c r="K68">
+        <f>POWER(D25-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>6.2</v>
       </c>
@@ -2242,8 +2764,24 @@
       <c r="E69" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f>POWER(A26-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I69">
+        <f>POWER(B26-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J69">
+        <f>POWER(C26-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K69">
+        <f>POWER(D26-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>5.6</v>
       </c>
@@ -2259,8 +2797,24 @@
       <c r="E70" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f>POWER(A27-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I70">
+        <f>POWER(B27-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J70">
+        <f>POWER(C27-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K70">
+        <f>POWER(D27-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>5.9</v>
       </c>
@@ -2276,8 +2830,24 @@
       <c r="E71" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f>POWER(A28-H37,2)</f>
+        <v>3.7636000000000322E-2</v>
+      </c>
+      <c r="I71">
+        <f>POWER(B28-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J71">
+        <f>POWER(C28-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K71">
+        <f>POWER(D28-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>6.1</v>
       </c>
@@ -2293,8 +2863,24 @@
       <c r="E72" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f>POWER(A29-H37,2)</f>
+        <v>3.7636000000000322E-2</v>
+      </c>
+      <c r="I72">
+        <f>POWER(B29-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J72">
+        <f>POWER(C29-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K72">
+        <f>POWER(D29-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>6.3</v>
       </c>
@@ -2310,8 +2896,24 @@
       <c r="E73" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f>POWER(A30-H37,2)</f>
+        <v>9.3635999999999484E-2</v>
+      </c>
+      <c r="I73">
+        <f>POWER(B30-I37,2)</f>
+        <v>4.7524000000000184E-2</v>
+      </c>
+      <c r="J73">
+        <f>POWER(C30-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K73">
+        <f>POWER(D30-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>6.1</v>
       </c>
@@ -2327,8 +2929,24 @@
       <c r="E74" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f>POWER(A31-H37,2)</f>
+        <v>4.24359999999998E-2</v>
+      </c>
+      <c r="I74">
+        <f>POWER(B31-I37,2)</f>
+        <v>0.10112400000000032</v>
+      </c>
+      <c r="J74">
+        <f>POWER(C31-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K74">
+        <f>POWER(D31-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6.4</v>
       </c>
@@ -2344,8 +2962,24 @@
       <c r="E75" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f>POWER(A32-H37,2)</f>
+        <v>0.15523600000000079</v>
+      </c>
+      <c r="I75">
+        <f>POWER(B32-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J75">
+        <f>POWER(C32-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K75">
+        <f>POWER(D32-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>6.6</v>
       </c>
@@ -2361,8 +2995,24 @@
       <c r="E76" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f>POWER(A33-H37,2)</f>
+        <v>3.7636000000000322E-2</v>
+      </c>
+      <c r="I76">
+        <f>POWER(B33-I37,2)</f>
+        <v>0.46512399999999871</v>
+      </c>
+      <c r="J76">
+        <f>POWER(C33-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K76">
+        <f>POWER(D33-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>6.8</v>
       </c>
@@ -2378,8 +3028,24 @@
       <c r="E77" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f>POWER(A34-H37,2)</f>
+        <v>0.24403600000000064</v>
+      </c>
+      <c r="I77">
+        <f>POWER(B34-I37,2)</f>
+        <v>0.6115239999999994</v>
+      </c>
+      <c r="J77">
+        <f>POWER(C34-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K77">
+        <f>POWER(D34-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>6.7</v>
       </c>
@@ -2395,8 +3061,24 @@
       <c r="E78" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f>POWER(A35-H37,2)</f>
+        <v>1.1235999999999784E-2</v>
+      </c>
+      <c r="I78">
+        <f>POWER(B35-I37,2)</f>
+        <v>0.10112400000000032</v>
+      </c>
+      <c r="J78">
+        <f>POWER(C35-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K78">
+        <f>POWER(D35-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>6</v>
       </c>
@@ -2412,8 +3094,24 @@
       <c r="E79" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f>POWER(A36-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I79">
+        <f>POWER(B36-I37,2)</f>
+        <v>4.7524000000000184E-2</v>
+      </c>
+      <c r="J79">
+        <f>POWER(C36-J37,2)</f>
+        <v>6.9696000000000008E-2</v>
+      </c>
+      <c r="K79">
+        <f>POWER(D36-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>5.7</v>
       </c>
@@ -2429,8 +3127,24 @@
       <c r="E80" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f>POWER(A37-H37,2)</f>
+        <v>0.24403600000000064</v>
+      </c>
+      <c r="I80">
+        <f>POWER(B37-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J80">
+        <f>POWER(C37-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K80">
+        <f>POWER(D37-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>5.5</v>
       </c>
@@ -2446,8 +3160,24 @@
       <c r="E81" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f>POWER(A38-H37,2)</f>
+        <v>1.1235999999999784E-2</v>
+      </c>
+      <c r="I81">
+        <f>POWER(B38-I37,2)</f>
+        <v>0.10112400000000032</v>
+      </c>
+      <c r="J81">
+        <f>POWER(C38-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K81">
+        <f>POWER(D38-K37,2)</f>
+        <v>2.0735999999999973E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>5.5</v>
       </c>
@@ -2463,8 +3193,24 @@
       <c r="E82" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f>POWER(A39-H37,2)</f>
+        <v>0.36723599999999879</v>
+      </c>
+      <c r="I82">
+        <f>POWER(B39-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J82">
+        <f>POWER(C39-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K82">
+        <f>POWER(D39-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>5.8</v>
       </c>
@@ -2480,8 +3226,24 @@
       <c r="E83" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f>POWER(A40-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I83">
+        <f>POWER(B40-I37,2)</f>
+        <v>3.2400000000002457E-4</v>
+      </c>
+      <c r="J83">
+        <f>POWER(C40-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K83">
+        <f>POWER(D40-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -2497,8 +3259,24 @@
       <c r="E84" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f>POWER(A41-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I84">
+        <f>POWER(B41-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J84">
+        <f>POWER(C41-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K84">
+        <f>POWER(D41-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>5.4</v>
       </c>
@@ -2514,8 +3292,24 @@
       <c r="E85" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f>POWER(A42-H37,2)</f>
+        <v>0.25603599999999932</v>
+      </c>
+      <c r="I85">
+        <f>POWER(B42-I37,2)</f>
+        <v>1.2499240000000018</v>
+      </c>
+      <c r="J85">
+        <f>POWER(C42-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K85">
+        <f>POWER(D42-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>6</v>
       </c>
@@ -2531,8 +3325,24 @@
       <c r="E86" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f>POWER(A43-H37,2)</f>
+        <v>0.36723599999999879</v>
+      </c>
+      <c r="I86">
+        <f>POWER(B43-I37,2)</f>
+        <v>4.7524000000000184E-2</v>
+      </c>
+      <c r="J86">
+        <f>POWER(C43-J37,2)</f>
+        <v>2.6895999999999975E-2</v>
+      </c>
+      <c r="K86">
+        <f>POWER(D43-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>6.7</v>
       </c>
@@ -2548,8 +3358,24 @@
       <c r="E87" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f>POWER(A44-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I87">
+        <f>POWER(B44-I37,2)</f>
+        <v>6.7239999999999028E-3</v>
+      </c>
+      <c r="J87">
+        <f>POWER(C44-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K87">
+        <f>POWER(D44-K37,2)</f>
+        <v>0.12673600000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>6.3</v>
       </c>
@@ -2565,8 +3391,24 @@
       <c r="E88" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f>POWER(A45-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I88">
+        <f>POWER(B45-I37,2)</f>
+        <v>0.14592399999999942</v>
+      </c>
+      <c r="J88">
+        <f>POWER(C45-J37,2)</f>
+        <v>0.19009599999999996</v>
+      </c>
+      <c r="K88">
+        <f>POWER(D45-K37,2)</f>
+        <v>2.4336000000000035E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>5.6</v>
       </c>
@@ -2582,8 +3424,24 @@
       <c r="E89" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f>POWER(A46-H37,2)</f>
+        <v>4.24359999999998E-2</v>
+      </c>
+      <c r="I89">
+        <f>POWER(B46-I37,2)</f>
+        <v>0.17472400000000049</v>
+      </c>
+      <c r="J89">
+        <f>POWER(C46-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K89">
+        <f>POWER(D46-K37,2)</f>
+        <v>3.1360000000000086E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>5.5</v>
       </c>
@@ -2599,8 +3457,24 @@
       <c r="E90" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f>POWER(A47-H37,2)</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+      <c r="I90">
+        <f>POWER(B47-I37,2)</f>
+        <v>0.14592399999999942</v>
+      </c>
+      <c r="J90">
+        <f>POWER(C47-J37,2)</f>
+        <v>1.8496000000000033E-2</v>
+      </c>
+      <c r="K90">
+        <f>POWER(D47-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>5.5</v>
       </c>
@@ -2616,8 +3490,24 @@
       <c r="E91" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f>POWER(A48-H37,2)</f>
+        <v>0.16483599999999976</v>
+      </c>
+      <c r="I91">
+        <f>POWER(B48-I37,2)</f>
+        <v>4.7524000000000184E-2</v>
+      </c>
+      <c r="J91">
+        <f>POWER(C48-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K91">
+        <f>POWER(D48-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>6.1</v>
       </c>
@@ -2633,8 +3523,24 @@
       <c r="E92" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f>POWER(A49-H37,2)</f>
+        <v>8.643600000000029E-2</v>
+      </c>
+      <c r="I92">
+        <f>POWER(B49-I37,2)</f>
+        <v>7.9523999999999762E-2</v>
+      </c>
+      <c r="J92">
+        <f>POWER(C49-J37,2)</f>
+        <v>1.2960000000000022E-3</v>
+      </c>
+      <c r="K92">
+        <f>POWER(D49-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>5.8</v>
       </c>
@@ -2650,8 +3556,24 @@
       <c r="E93" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f>POWER(A50-H37,2)</f>
+        <v>3.5999999999992073E-5</v>
+      </c>
+      <c r="I93">
+        <f>POWER(B50-I37,2)</f>
+        <v>1.3924000000000183E-2</v>
+      </c>
+      <c r="J93">
+        <f>POWER(C50-J37,2)</f>
+        <v>4.0960000000000076E-3</v>
+      </c>
+      <c r="K93">
+        <f>POWER(D50-K37,2)</f>
+        <v>1.9359999999999913E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>5</v>
       </c>
@@ -2668,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>5.6</v>
       </c>
@@ -2685,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>5.7</v>
       </c>
